--- a/uploads/transactions-sample.xlsx
+++ b/uploads/transactions-sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\council\dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D5C4C7F-D83D-490C-89B8-E29BF7871483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF01CEF3-E4F8-4882-A6DB-F1677BEFF3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>terminal_id</t>
   </si>
@@ -57,9 +57,6 @@
     <t>is_sync</t>
   </si>
   <si>
-    <t>2024-01-24 00:47:41</t>
-  </si>
-  <si>
     <t>01a224d7-75ab-4cb8-8787-5bbe872d69ef</t>
   </si>
   <si>
@@ -67,6 +64,12 @@
   </si>
   <si>
     <t>updated_at</t>
+  </si>
+  <si>
+    <t>06/06/2023  10:47:41</t>
+  </si>
+  <si>
+    <t>03/06/2023  10:47:41</t>
   </si>
 </sst>
 </file>
@@ -123,12 +126,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -424,9 +428,9 @@
     <col min="5" max="5" width="20.90625" customWidth="1"/>
     <col min="6" max="6" width="17.1796875" customWidth="1"/>
     <col min="7" max="7" width="11.453125" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
-    <col min="10" max="10" width="18.7265625" customWidth="1"/>
-    <col min="11" max="11" width="19.26953125" customWidth="1"/>
+    <col min="8" max="8" width="38" customWidth="1"/>
+    <col min="10" max="10" width="19.90625" customWidth="1"/>
+    <col min="11" max="11" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -461,7 +465,7 @@
         <v>5</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -475,28 +479,57 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>20.5</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>45083.449780092589</v>
+      </c>
+      <c r="K3" s="5">
+        <v>45083.449780092589</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
